--- a/app/config/tables/example_field_report_form/forms/example_field_report_form/example_field_report_form.xlsx
+++ b/app/config/tables/example_field_report_form/forms/example_field_report_form/example_field_report_form.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27907"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Ori/Documents/new_redcross_repos/redcross-app-designer/app/config/tables/custom_distribution_reports/forms/custom_distribution_reports/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DemoRedCross\redcross-app-designer\app\config\tables\example_field_report_form\forms\example_field_report_form\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16220" tabRatio="994" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="456" windowWidth="28800" windowHeight="16224" tabRatio="994" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
   <calcPr calcId="150001" iterateDelta="1E-4" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
+      <x14:workbookPr defaultImageDpi="330"/>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -105,12 +105,6 @@
     <t>Record any relevant notes on this distribution</t>
   </si>
   <si>
-    <t>custom_distribution_reports</t>
-  </si>
-  <si>
-    <t>Custom Distribution Report</t>
-  </si>
-  <si>
     <t>clause</t>
   </si>
   <si>
@@ -136,12 +130,18 @@
   </si>
   <si>
     <t>receive_signature</t>
+  </si>
+  <si>
+    <t>example_field_report_form</t>
+  </si>
+  <si>
+    <t>Custom Field Report</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -437,6 +437,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -770,20 +773,20 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="24" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="23.4" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="33.1640625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="35.83203125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="44.33203125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="32.33203125" style="5" customWidth="1"/>
+    <col min="1" max="1" width="33.19921875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="35.796875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="44.296875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="32.296875" style="5" customWidth="1"/>
     <col min="5" max="5" width="34.5" style="5" customWidth="1"/>
     <col min="6" max="6" width="34.5" style="1" customWidth="1"/>
-    <col min="7" max="7" width="30.6640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="29.1640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="8.83203125" style="1"/>
+    <col min="7" max="7" width="30.69921875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="29.19921875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="8.796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -799,7 +802,7 @@
       <c r="G1" s="10"/>
       <c r="H1" s="10"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -816,15 +819,15 @@
       <c r="H2" s="10"/>
       <c r="I2"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="36" t="s">
-        <v>33</v>
-      </c>
       <c r="C3" s="13" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D3" s="14"/>
       <c r="F3"/>
@@ -832,7 +835,7 @@
       <c r="H3"/>
       <c r="I3"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B4" s="15"/>
       <c r="C4" s="13"/>
       <c r="D4" s="14"/>
@@ -842,7 +845,7 @@
       <c r="H4"/>
       <c r="I4"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A5" s="16"/>
       <c r="B5" s="17"/>
       <c r="C5" s="18"/>
@@ -853,7 +856,7 @@
       <c r="H5"/>
       <c r="I5"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A6" s="16"/>
       <c r="B6" s="17"/>
       <c r="C6" s="18"/>
@@ -864,19 +867,19 @@
       <c r="H6"/>
       <c r="I6"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
       <c r="E7"/>
       <c r="F7"/>
       <c r="G7"/>
       <c r="H7"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
       <c r="E8"/>
       <c r="F8"/>
       <c r="G8"/>
       <c r="H8"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
       <c r="C9" s="13"/>
       <c r="D9" s="14"/>
       <c r="F9"/>
@@ -884,7 +887,7 @@
       <c r="H9"/>
       <c r="I9"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
       <c r="C10" s="13"/>
       <c r="D10" s="14"/>
       <c r="F10"/>
@@ -892,7 +895,7 @@
       <c r="H10"/>
       <c r="I10"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
       <c r="C11" s="13"/>
       <c r="D11" s="14"/>
       <c r="F11"/>
@@ -900,7 +903,7 @@
       <c r="H11"/>
       <c r="I11"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
       <c r="D12" s="14"/>
       <c r="E12"/>
       <c r="F12"/>
@@ -908,28 +911,28 @@
       <c r="H12"/>
       <c r="I12"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
       <c r="D13" s="14"/>
       <c r="E13"/>
       <c r="F13"/>
       <c r="G13"/>
       <c r="H13"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
       <c r="D14" s="14"/>
       <c r="E14"/>
       <c r="F14"/>
       <c r="G14"/>
       <c r="H14"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
       <c r="D15" s="14"/>
       <c r="E15"/>
       <c r="F15"/>
       <c r="G15"/>
       <c r="H15"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
       <c r="D16" s="14"/>
       <c r="E16"/>
       <c r="F16"/>
@@ -937,14 +940,14 @@
       <c r="H16"/>
       <c r="I16"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
       <c r="E17"/>
       <c r="F17"/>
       <c r="G17"/>
       <c r="H17"/>
       <c r="I17"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A18" s="20"/>
       <c r="B18" s="21"/>
       <c r="C18" s="22"/>
@@ -952,7 +955,7 @@
       <c r="E18"/>
       <c r="I18"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A19"/>
       <c r="B19"/>
       <c r="C19"/>
@@ -963,7 +966,7 @@
       <c r="H19"/>
       <c r="I19"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A20" s="26"/>
       <c r="B20"/>
       <c r="C20"/>
@@ -974,20 +977,20 @@
       <c r="H20"/>
       <c r="I20"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.45">
       <c r="D21" s="14"/>
       <c r="E21" s="14"/>
       <c r="F21"/>
       <c r="G21"/>
       <c r="H21"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.45">
       <c r="D22" s="14"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.45">
       <c r="D23" s="14"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A24" s="24"/>
       <c r="B24"/>
       <c r="C24"/>
@@ -998,7 +1001,7 @@
       <c r="H24"/>
       <c r="I24"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A25" s="20"/>
       <c r="B25"/>
       <c r="C25" s="25"/>
@@ -1009,7 +1012,7 @@
       <c r="H25"/>
       <c r="I25"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A26" s="26"/>
       <c r="B26"/>
       <c r="C26"/>
@@ -1020,10 +1023,10 @@
       <c r="H26"/>
       <c r="I26"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.45">
       <c r="D27" s="14"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.45">
       <c r="C28" s="13"/>
       <c r="D28" s="14"/>
       <c r="F28"/>
@@ -1031,14 +1034,14 @@
       <c r="H28"/>
       <c r="I28"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.45">
       <c r="D29" s="14"/>
       <c r="I29"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.45">
       <c r="I30"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A32"/>
       <c r="B32"/>
       <c r="C32"/>
@@ -1054,17 +1057,17 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="24" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="23.4" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="36.5" style="27" customWidth="1"/>
-    <col min="2" max="2" width="33.1640625" style="28" customWidth="1"/>
-    <col min="3" max="3" width="39.83203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="33.19921875" style="28" customWidth="1"/>
+    <col min="3" max="3" width="39.796875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="29" t="s">
         <v>4</v>
       </c>
@@ -1075,16 +1078,16 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" s="27" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="28" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="C2"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" s="27" t="s">
         <v>8</v>
       </c>
@@ -1093,22 +1096,22 @@
       </c>
       <c r="C3"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="27" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="C4"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" s="27" t="s">
         <v>10</v>
       </c>
       <c r="B5"/>
       <c r="C5" s="1" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -1125,37 +1128,37 @@
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="35" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B1" s="35" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="35" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A2" s="35" t="s">
         <v>26</v>
-      </c>
-      <c r="D1" s="35" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="32" x14ac:dyDescent="0.2">
-      <c r="A2" s="35" t="s">
-        <v>28</v>
       </c>
       <c r="B2" s="35"/>
       <c r="C2" s="35"/>
     </row>
-    <row r="3" spans="1:4" ht="192" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A3" s="35" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B3" s="35"/>
       <c r="C3" s="35"/>
       <c r="D3" s="35" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -1171,14 +1174,14 @@
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="24" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="23.4" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="2"/>
-    <col min="2" max="2" width="53.1640625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="8.83203125" style="1"/>
+    <col min="1" max="1" width="8.796875" style="2"/>
+    <col min="2" max="2" width="53.19921875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="8.796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1187,7 +1190,7 @@
       </c>
       <c r="C1"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -1195,12 +1198,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="36" t="s">
         <v>31</v>
-      </c>
-      <c r="B3" s="36" t="s">
-        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -1217,9 +1220,9 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="32" t="s">
         <v>11</v>
       </c>
@@ -1236,7 +1239,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>14</v>
       </c>
@@ -1253,7 +1256,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>14</v>
       </c>
